--- a/public/assets/import/Format Import Maintenance.xlsx
+++ b/public/assets/import/Format Import Maintenance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADI\Herd\real_management_asset\public\assets\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE42015-934F-4166-B2BA-A1C468F0860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F03F9EA-B9B4-4B23-AA7A-A844B00C27B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7598472B-0AD5-46A8-B8B5-A908E50BC464}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>date</t>
   </si>
@@ -315,6 +315,33 @@
   </si>
   <si>
     <t>Gudang 2</t>
+  </si>
+  <si>
+    <t>item_id_1</t>
+  </si>
+  <si>
+    <t>qty_item_1</t>
+  </si>
+  <si>
+    <t>replacing_asset_id_1</t>
+  </si>
+  <si>
+    <t>item_id_2</t>
+  </si>
+  <si>
+    <t>qty_item_2</t>
+  </si>
+  <si>
+    <t>replacing_asset_id_2</t>
+  </si>
+  <si>
+    <t>SPR-2</t>
+  </si>
+  <si>
+    <t>AST - 1169</t>
+  </si>
+  <si>
+    <t>SPR-3</t>
   </si>
 </sst>
 </file>
@@ -719,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FC597E-5118-4176-A05B-CF9BA89364C3}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -748,10 +775,14 @@
     <col min="19" max="19" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.85546875" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="13.7109375" style="4"/>
+    <col min="22" max="24" width="13.7109375" style="4"/>
+    <col min="25" max="25" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.7109375" style="4"/>
+    <col min="28" max="28" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="13.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,11 +846,29 @@
       <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45631</v>
       </c>
@@ -883,11 +932,25 @@
       <c r="U2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="W2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45632</v>
       </c>
@@ -951,11 +1014,25 @@
       <c r="U3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="W3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45633</v>
       </c>
@@ -1019,11 +1096,27 @@
       <c r="U4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="W4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45634</v>
       </c>
@@ -1087,11 +1180,25 @@
       <c r="U5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="W5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45635</v>
       </c>
@@ -1155,11 +1262,27 @@
       <c r="U6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="W6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45636</v>
       </c>
@@ -1223,11 +1346,25 @@
       <c r="U7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="W7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45637</v>
       </c>
@@ -1291,9 +1428,23 @@
       <c r="U8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="W8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
